--- a/Testcases_supplier/Customers/Manual testcases/Customer-Manage market list.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer-Manage market list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Supplier hub\Customers\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB542A-E9C4-47FE-B300-DD94D06614F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894E1BC6-BAB3-4BDD-9D38-0BAD920A1756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>SL. No</t>
   </si>
@@ -425,9 +425,6 @@
     <t xml:space="preserve">Click the Check box </t>
   </si>
   <si>
-    <t>It displayed '1 SKU selected and Add to market list &amp; save' are Enabled</t>
-  </si>
-  <si>
     <t>It displayed the Marketlist created successfully</t>
   </si>
   <si>
@@ -537,6 +534,67 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> it display outlet screen</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed "1 SKU selected and Add to market list &amp; save" are Enabled</t>
+  </si>
+  <si>
+    <r>
+      <t>Actions-&gt;Manage Market list-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add from catalogue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new implement)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the Add to market list &amp; save, I shows pop up </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"your selection includes items priced zero(free) ,Cancel and Yes, add selected items to market list"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the 'yes,add selected items to market list' it displayed the toaster </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Marketlist created successfully'</t>
     </r>
   </si>
 </sst>
@@ -947,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,13 +1319,13 @@
         <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1278,19 +1336,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1304,16 +1362,16 @@
         <v>37</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1327,16 +1385,16 @@
         <v>37</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1347,19 +1405,43 @@
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testcases_supplier/Customers/Manual testcases/Customer-Manage market list.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer-Manage market list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Supplier hub\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894E1BC6-BAB3-4BDD-9D38-0BAD920A1756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB542A-E9C4-47FE-B300-DD94D06614F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>SL. No</t>
   </si>
@@ -425,6 +425,9 @@
     <t xml:space="preserve">Click the Check box </t>
   </si>
   <si>
+    <t>It displayed '1 SKU selected and Add to market list &amp; save' are Enabled</t>
+  </si>
+  <si>
     <t>It displayed the Marketlist created successfully</t>
   </si>
   <si>
@@ -534,67 +537,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> it display outlet screen</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed "1 SKU selected and Add to market list &amp; save" are Enabled</t>
-  </si>
-  <si>
-    <r>
-      <t>Actions-&gt;Manage Market list-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add from catalogue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new implement)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the Add to market list &amp; save, I shows pop up </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"your selection includes items priced zero(free) ,Cancel and Yes, add selected items to market list"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the 'yes,add selected items to market list' it displayed the toaster </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Marketlist created successfully'</t>
     </r>
   </si>
 </sst>
@@ -1005,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,13 +1261,13 @@
         <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1336,19 +1278,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1362,16 +1304,16 @@
         <v>37</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1385,16 +1327,16 @@
         <v>37</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1405,43 +1347,19 @@
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testcases_supplier/Customers/Manual testcases/Customer-Manage market list.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer-Manage market list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Supplier hub\Customers\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB542A-E9C4-47FE-B300-DD94D06614F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4133D2B3-70F4-47B9-B1C6-B40505CAE9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>SL. No</t>
   </si>
@@ -537,6 +537,61 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> it display outlet screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Actions-&gt;Manage Market list-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add from catalogue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new implement)</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed Confirmation step for suppliers, only shown if the selection includes items priced $0.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to market list &amp; save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, it should have to show pop up page Are you sure?</t>
     </r>
   </si>
 </sst>
@@ -947,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,49 +1368,69 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>13</v>
       </c>
     </row>
